--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="587">
   <si>
     <t>tissueType</t>
   </si>
@@ -755,9 +755,6 @@
     <t>CSCs</t>
   </si>
   <si>
-    <t>CD19,IGHA2,IGHG3,IGHM,IGKC,JCHAIN,CD40,CD79A,CPNE5,FCRL5,HLA-DRA,IGHA1,IGHG1,IGHG2,IGKV1-12,IGLC2,IGLC3,IGLC7,IGLL5,MS4A1,MZB1,PKHD1L1,PNOC,POU2AF1,TNFRSF13C,CD3D,TRAC,IL7R,CD3E,CD8A,TRBC2,CD52,FCGR3A,IL32,KLRD1,CD68,CXCL8,FCGR3B,MNDA,KIT,PTGS2,SLC18A2,Trac,Ltb,Cd52,Trbc2,Shisa5</t>
-  </si>
-  <si>
     <t>α-intercalated cells (Collecting duct system)</t>
   </si>
   <si>
@@ -797,15 +794,6 @@
     <t>NPHS1,NPHS2,EZR,TDRD5,SEMA3G,SEMA5A,SEMA3E,PLA2R1,COL4A4,ARHGAP24,WT1,COL4A3,RHPN1,MAFB,PODXL,CLIC5,CD2AP,NOTCH2</t>
   </si>
   <si>
-    <t>Principal cells (Collecting duct system)</t>
-  </si>
-  <si>
-    <t>KCNE1,APELA,AQP2,AQP3,GATA3,ELF5,STC1,TBX3,CLDN4,KCNJ1,AVPR2,FXYD4,HSD11B2,SCNN1G</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
     <t>Inner Medullary cells (Collecting duct system)</t>
   </si>
   <si>
@@ -908,7 +896,7 @@
     <t>Papillary Epithelial Cell</t>
   </si>
   <si>
-    <t>KRT5, TP63, GPX2, TACSTD2, FXYD3</t>
+    <t>FXYD4, KCNJ1, HSD11B2, TACSTD2, FXYD3, ELF5, TBX3, GATA3, SCNN1G, GPX2, AQP3, KRT5, TP63, STC1, AVPR2, KCNE1, CLDN4, APELA, AQP2</t>
   </si>
   <si>
     <t>PapEC</t>
@@ -971,7 +959,7 @@
     <t>Principal Cell</t>
   </si>
   <si>
-    <t>GATA3, AQP2, AQP3, SCNN1G, SCNN1B, FXYD4, SOX5</t>
+    <t>GATA3, AQP2, AQP3, SCNN1G, SCNN1B, FXYD4, SOX5,</t>
   </si>
   <si>
     <t>PC</t>
@@ -2784,10 +2772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P263"/>
+  <dimension ref="A1:P261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4090,14 +4078,14 @@
         <v>237</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4105,14 +4093,14 @@
         <v>237</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4120,14 +4108,14 @@
         <v>237</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4135,10 +4123,10 @@
         <v>237</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -4150,14 +4138,14 @@
         <v>237</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4165,14 +4153,14 @@
         <v>237</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4180,14 +4168,14 @@
         <v>237</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4195,14 +4183,14 @@
         <v>237</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4210,14 +4198,14 @@
         <v>237</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4240,14 +4228,14 @@
         <v>237</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4255,14 +4243,14 @@
         <v>237</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4270,14 +4258,14 @@
         <v>237</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4285,14 +4273,14 @@
         <v>237</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4300,14 +4288,14 @@
         <v>237</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4315,14 +4303,14 @@
         <v>237</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4330,14 +4318,14 @@
         <v>237</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4345,59 +4333,81 @@
         <v>237</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -4416,14 +4426,14 @@
         <v>237</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -4442,14 +4452,14 @@
         <v>237</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -4468,14 +4478,14 @@
         <v>237</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -4494,14 +4504,14 @@
         <v>237</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -4520,14 +4530,14 @@
         <v>237</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -4546,14 +4556,14 @@
         <v>237</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -4572,14 +4582,14 @@
         <v>237</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -4598,14 +4608,14 @@
         <v>237</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -4624,14 +4634,14 @@
         <v>237</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -4650,14 +4660,14 @@
         <v>237</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -4676,14 +4686,14 @@
         <v>237</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -4702,14 +4712,14 @@
         <v>237</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>329</v>
+        <v>65</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -4735,7 +4745,7 @@
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -4754,14 +4764,14 @@
         <v>237</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>65</v>
+        <v>335</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -4780,14 +4790,14 @@
         <v>237</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -4806,14 +4816,14 @@
         <v>237</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -4832,14 +4842,14 @@
         <v>237</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -4858,14 +4868,14 @@
         <v>237</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -4881,17 +4891,17 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="4" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -4907,17 +4917,17 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="4" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -4933,17 +4943,17 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -4957,76 +4967,54 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:5">
       <c r="A127" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-    </row>
-    <row r="128" spans="1:16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
+        <v>355</v>
+      </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>83</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>359</v>
@@ -5041,103 +5029,103 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>201</v>
+        <v>368</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>203</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
@@ -5146,58 +5134,58 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
@@ -5206,43 +5194,43 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
@@ -5251,82 +5239,82 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>407</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>408</v>
@@ -5341,187 +5329,183 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>217</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>419</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>422</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>132</v>
+        <v>421</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>151</v>
+        <v>424</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>151</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D161" s="4"/>
-      <c r="E161" s="4" t="s">
-        <v>435</v>
-      </c>
+      <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D162" s="4"/>
-      <c r="E162" s="4" t="s">
-        <v>438</v>
-      </c>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>440</v>
@@ -5534,7 +5518,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>442</v>
@@ -5547,7 +5531,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>444</v>
@@ -5560,7 +5544,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>446</v>
@@ -5573,7 +5557,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>448</v>
@@ -5586,7 +5570,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>450</v>
@@ -5599,7 +5583,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>452</v>
@@ -5612,7 +5596,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>454</v>
@@ -5625,7 +5609,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>456</v>
@@ -5638,7 +5622,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>458</v>
@@ -5651,10 +5635,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>461</v>
@@ -5664,7 +5648,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>462</v>
@@ -5677,10 +5661,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>465</v>
@@ -5690,101 +5674,101 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>476</v>
@@ -5794,36 +5778,36 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>481</v>
@@ -5833,7 +5817,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>482</v>
@@ -5846,7 +5830,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>484</v>
@@ -5859,10 +5843,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>487</v>
@@ -5872,75 +5856,75 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>495</v>
@@ -5950,7 +5934,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>496</v>
@@ -5963,205 +5947,205 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="4" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>518</v>
@@ -6171,20 +6155,20 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>521</v>
@@ -6197,244 +6181,244 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>531</v>
+        <v>450</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>535</v>
+        <v>438</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="4" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="4" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>454</v>
+        <v>541</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>545</v>
+        <v>404</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="4" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>408</v>
+        <v>547</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>548</v>
@@ -6444,10 +6428,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="4" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>549</v>
@@ -6457,23 +6441,23 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="C235" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>450</v>
+        <v>552</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>553</v>
@@ -6483,7 +6467,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>554</v>
@@ -6496,7 +6480,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>556</v>
@@ -6509,153 +6493,153 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>458</v>
+        <v>571</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>572</v>
+        <v>448</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>573</v>
@@ -6665,108 +6649,112 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="C251" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4" t="s">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>454</v>
+        <v>579</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>580</v>
       </c>
       <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
+      <c r="E254" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
-        <v>574</v>
+        <v>108</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>581</v>
+        <v>238</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>582</v>
       </c>
       <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
+      <c r="E255" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="4" t="s">
-        <v>585</v>
+        <v>240</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>238</v>
+        <v>579</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>586</v>
+        <v>239</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>240</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
-        <v>148</v>
+        <v>397</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="4" t="s">
@@ -6775,28 +6763,28 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>239</v>
+        <v>585</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="4" t="s">
@@ -6805,51 +6793,21 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>583</v>
+        <v>238</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>589</v>
+        <v>239</v>
       </c>
       <c r="D261" s="4"/>
       <c r="E261" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E263">
+  <autoFilter ref="A1:E261">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$260</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="586">
   <si>
     <t>tissueType</t>
   </si>
@@ -821,9 +821,6 @@
     <t>Cap mesenchyme</t>
   </si>
   <si>
-    <t>TGFBR2,NOTCH4,ADGRL4,EMCN,ENG,PECAM1,PLAC8,PLVAP,TEK,KDR,VWF,MMRN1,CD93</t>
-  </si>
-  <si>
     <t>Stromal cells</t>
   </si>
   <si>
@@ -950,7 +947,7 @@
     <t>Endothelial Cell</t>
   </si>
   <si>
-    <t>EMCN, PECAM1, FLT1, CD34</t>
+    <t>EMCN, PECAM1, FLT1, CD34,TGFBR2,NOTCH4,ADGRL4,ENG,PLAC8,PLVAP,TEK,KDR,VWF,MMRN1,CD93</t>
   </si>
   <si>
     <t>EC</t>
@@ -2772,10 +2769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P261"/>
+  <dimension ref="A1:P260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A93" sqref="$A93:$XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4198,14 +4195,14 @@
         <v>237</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4213,14 +4210,14 @@
         <v>237</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4228,14 +4225,14 @@
         <v>237</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4243,14 +4240,14 @@
         <v>237</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4258,14 +4255,14 @@
         <v>237</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4273,14 +4270,14 @@
         <v>237</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4288,14 +4285,14 @@
         <v>237</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4303,14 +4300,14 @@
         <v>237</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4318,44 +4315,55 @@
         <v>237</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -4374,14 +4382,14 @@
         <v>237</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -4400,14 +4408,14 @@
         <v>237</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -4426,14 +4434,14 @@
         <v>237</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -4452,14 +4460,14 @@
         <v>237</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -4478,14 +4486,14 @@
         <v>237</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -4504,14 +4512,14 @@
         <v>237</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -4530,14 +4538,14 @@
         <v>237</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -4556,14 +4564,14 @@
         <v>237</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -4582,14 +4590,14 @@
         <v>237</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -4608,14 +4616,14 @@
         <v>237</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -4634,14 +4642,14 @@
         <v>237</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -4660,14 +4668,14 @@
         <v>237</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -4686,14 +4694,14 @@
         <v>237</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -4712,14 +4720,14 @@
         <v>237</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>65</v>
+        <v>331</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -4738,14 +4746,14 @@
         <v>237</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -4764,14 +4772,14 @@
         <v>237</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -4790,14 +4798,14 @@
         <v>237</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -4816,14 +4824,14 @@
         <v>237</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -4842,14 +4850,14 @@
         <v>237</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -4865,17 +4873,17 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="4" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -4891,17 +4899,17 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -4917,17 +4925,17 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -4941,176 +4949,165 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:5">
       <c r="A126" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>352</v>
+        <v>124</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>124</v>
+        <v>354</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>359</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>132</v>
+        <v>361</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>5</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>362</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
@@ -5119,58 +5116,58 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
@@ -5179,43 +5176,43 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
@@ -5224,103 +5221,103 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>404</v>
+        <v>217</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>406</v>
+        <v>217</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>217</v>
+        <v>409</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
@@ -5329,88 +5326,88 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>416</v>
+        <v>132</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>418</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>419</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>151</v>
+        <v>420</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
@@ -5419,252 +5416,250 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D160" s="4"/>
-      <c r="E160" s="4" t="s">
-        <v>434</v>
-      </c>
+      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>465</v>
@@ -5674,10 +5669,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>466</v>
@@ -5687,10 +5682,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>467</v>
@@ -5700,23 +5695,23 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>470</v>
@@ -5726,10 +5721,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>471</v>
@@ -5739,36 +5734,36 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>476</v>
@@ -5778,75 +5773,75 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>487</v>
@@ -5856,10 +5851,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>488</v>
@@ -5869,10 +5864,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>489</v>
@@ -5882,10 +5877,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>490</v>
@@ -5895,49 +5890,49 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>497</v>
@@ -5947,10 +5942,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>498</v>
@@ -5960,10 +5955,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>499</v>
@@ -5973,10 +5968,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>500</v>
@@ -5986,23 +5981,23 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>503</v>
@@ -6012,10 +6007,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>504</v>
@@ -6025,10 +6020,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>505</v>
@@ -6038,23 +6033,23 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>508</v>
@@ -6064,23 +6059,23 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>511</v>
@@ -6090,10 +6085,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>512</v>
@@ -6103,10 +6098,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>513</v>
@@ -6116,10 +6111,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>514</v>
@@ -6129,49 +6124,49 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>522</v>
@@ -6181,23 +6176,23 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>525</v>
@@ -6207,23 +6202,23 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>528</v>
@@ -6233,10 +6228,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>529</v>
@@ -6246,23 +6241,23 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>532</v>
@@ -6272,10 +6267,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>533</v>
@@ -6285,23 +6280,23 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="4" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>536</v>
@@ -6311,10 +6306,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>537</v>
@@ -6324,10 +6319,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>538</v>
@@ -6337,10 +6332,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>539</v>
@@ -6350,23 +6345,23 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>541</v>
+        <v>437</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>542</v>
@@ -6376,10 +6371,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>543</v>
@@ -6389,10 +6384,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>544</v>
@@ -6402,23 +6397,23 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="4" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>548</v>
@@ -6428,62 +6423,62 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>446</v>
+        <v>549</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>556</v>
+        <v>441</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>557</v>
@@ -6493,23 +6488,23 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>559</v>
+        <v>447</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>560</v>
@@ -6519,10 +6514,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>561</v>
@@ -6532,10 +6527,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>562</v>
@@ -6545,10 +6540,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>563</v>
@@ -6558,10 +6553,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>564</v>
@@ -6571,10 +6566,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>565</v>
@@ -6584,10 +6579,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>566</v>
@@ -6597,36 +6592,36 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>454</v>
+        <v>567</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>571</v>
+        <v>447</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>572</v>
@@ -6636,23 +6631,23 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>448</v>
+        <v>573</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>574</v>
+        <v>449</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>575</v>
@@ -6662,48 +6657,50 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>450</v>
+        <v>576</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4" t="s">
-        <v>570</v>
+        <v>5</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
+      <c r="E253" s="4" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>579</v>
+        <v>238</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D254" s="4"/>
       <c r="E254" s="4" t="s">
-        <v>581</v>
+        <v>240</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>238</v>
@@ -6718,96 +6715,81 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>238</v>
+        <v>578</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>583</v>
+        <v>239</v>
       </c>
       <c r="D256" s="4"/>
       <c r="E256" s="4" t="s">
-        <v>240</v>
+        <v>580</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>579</v>
+        <v>238</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>239</v>
+        <v>583</v>
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>581</v>
+        <v>240</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>238</v>
+        <v>578</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>584</v>
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="4" t="s">
-        <v>240</v>
+        <v>580</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>579</v>
+        <v>238</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>585</v>
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>581</v>
+        <v>240</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
-        <v>348</v>
+        <v>237</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>586</v>
+        <v>239</v>
       </c>
       <c r="D260" s="4"/>
       <c r="E260" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E261">
+  <autoFilter ref="A1:E260">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26720" windowHeight="11840" tabRatio="500"/>
+    <workbookView windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$273</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="611">
   <si>
     <t>tissueType</t>
   </si>
@@ -1788,6 +1788,81 @@
   </si>
   <si>
     <t>FUT4,MSI1,NES,PROM1,SOX2,THY1</t>
+  </si>
+  <si>
+    <t>shen</t>
+  </si>
+  <si>
+    <t>Proximal Tubule Cell</t>
+  </si>
+  <si>
+    <t>LRP2, CUBN, SLC13A1</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>Thin Limb Cell</t>
+  </si>
+  <si>
+    <t>CRYAB, TACSTD2, SLC44A5, KLRG2, COL26A1, BOC</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>CASR, SLC12A1, UMOD</t>
+  </si>
+  <si>
+    <t>Distal Convoluted Tubule Cell</t>
+  </si>
+  <si>
+    <t>SLC12A3, CNNM2, FGF13, KLHL3, LHX1, TRPM6</t>
+  </si>
+  <si>
+    <t>DCTC</t>
+  </si>
+  <si>
+    <t>Connecting Tubule Cell</t>
+  </si>
+  <si>
+    <t>SLC8A1, SCN2A, HSD11B2, CALB1</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>GATA3, AQP2, AQP3</t>
+  </si>
+  <si>
+    <t>TACSTD2, TP63, GPX2, FXYD3, KRT5</t>
+  </si>
+  <si>
+    <t>ATP6V0D2, ATP6V1C2, TMEM213, CLNK</t>
+  </si>
+  <si>
+    <t>CD34, PECAM1, PTPRB, MEIS2, FLT1, EMCN</t>
+  </si>
+  <si>
+    <t>Vascular Smooth Muscle Cell / Pericyte</t>
+  </si>
+  <si>
+    <t>NOTCH3, PDGFRB, ITGA8</t>
+  </si>
+  <si>
+    <t>COL1A1, COL1A2, C7, NEGR1, FBLN5, DCN, CDH11</t>
+  </si>
+  <si>
+    <t>IMMC</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>CD68, CD163</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -2769,10 +2844,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P260"/>
+  <dimension ref="A1:P281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A93" sqref="$A93:$XFD93"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261:A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6788,8 +6863,227 @@
         <v>240</v>
       </c>
     </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E260">
+  <autoFilter ref="A1:E273">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
